--- a/data_year/zb/农业/茶叶、水果产量.xlsx
+++ b/data_year/zb/农业/茶叶、水果产量.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R22"/>
+  <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,1187 +523,691 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6225.14703</v>
+        <v>12285.1507641292</v>
       </c>
       <c r="C2" t="n">
-        <v>878.3129</v>
+        <v>2581.7404381457</v>
       </c>
       <c r="D2" t="n">
-        <v>159.1906</v>
+        <v>258.908359648273</v>
       </c>
       <c r="E2" t="n">
-        <v>841.241276</v>
+        <v>1409.4778413336</v>
       </c>
       <c r="F2" t="n">
-        <v>6225.14703</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+        <v>20095.3692329354</v>
+      </c>
+      <c r="G2" t="n">
+        <v>7810.21846880618</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1086.01153960812</v>
+      </c>
       <c r="I2" t="n">
-        <v>130.6036</v>
+        <v>422.487101401491</v>
       </c>
       <c r="J2" t="n">
-        <v>4.7294</v>
+        <v>6.65688195371117</v>
       </c>
       <c r="K2" t="n">
-        <v>49.8057</v>
+        <v>104.710662151783</v>
       </c>
       <c r="L2" t="n">
-        <v>2043.122971</v>
+        <v>3164.9067540262</v>
       </c>
       <c r="M2" t="n">
-        <v>68.332375</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+        <v>146.249107923</v>
+      </c>
+      <c r="N2" t="n">
+        <v>179.400006021521</v>
+      </c>
       <c r="O2" t="n">
-        <v>85.65170000000001</v>
+        <v>101.840960665384</v>
       </c>
       <c r="P2" t="n">
-        <v>328.16984</v>
-      </c>
-      <c r="Q2" t="inlineStr"/>
+        <v>813.530852545</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>6266.05788654312</v>
+      </c>
       <c r="R2" t="n">
-        <v>494.1454</v>
+        <v>884.1025016205</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6657.9966</v>
+        <v>13201.8403048976</v>
       </c>
       <c r="C3" t="n">
-        <v>1160.6915</v>
+        <v>2864.1222041631</v>
       </c>
       <c r="D3" t="n">
-        <v>158.4665</v>
+        <v>276.862154099002</v>
       </c>
       <c r="E3" t="n">
-        <v>879.6097</v>
+        <v>1448.5619989576</v>
       </c>
       <c r="F3" t="n">
-        <v>6657.9966</v>
+        <v>21018.6085908276</v>
       </c>
       <c r="G3" t="n">
-        <v>6843.62347389882</v>
+        <v>7816.76828593006</v>
       </c>
       <c r="H3" t="n">
-        <v>742.5154700000001</v>
+        <v>1088.97940666362</v>
       </c>
       <c r="I3" t="n">
-        <v>130.8633</v>
+        <v>505.412664591695</v>
       </c>
       <c r="J3" t="n">
-        <v>4.2949</v>
+        <v>11.1002143488913</v>
       </c>
       <c r="K3" t="n">
-        <v>51.3154</v>
+        <v>113.971077149584</v>
       </c>
       <c r="L3" t="n">
-        <v>2001.4986</v>
+        <v>3367.2791447586</v>
       </c>
       <c r="M3" t="n">
-        <v>70.1699</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+        <v>160.7551321814</v>
+      </c>
+      <c r="N3" t="n">
+        <v>200.855483433417</v>
+      </c>
       <c r="O3" t="n">
-        <v>86.9049</v>
+        <v>111.286246231278</v>
       </c>
       <c r="P3" t="n">
-        <v>368</v>
+        <v>857.6924211677</v>
       </c>
       <c r="Q3" t="n">
-        <v>5717.827139</v>
+        <v>6241.79161004267</v>
       </c>
       <c r="R3" t="n">
-        <v>527.2352</v>
+        <v>946.0748870189</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6951.9803</v>
+        <v>14196.7401703709</v>
       </c>
       <c r="C4" t="n">
-        <v>1199.0065</v>
+        <v>3089.427628459</v>
       </c>
       <c r="D4" t="n">
-        <v>174.05912</v>
+        <v>291.00453769898</v>
       </c>
       <c r="E4" t="n">
-        <v>930.9432</v>
+        <v>1550.4430139861</v>
       </c>
       <c r="F4" t="n">
-        <v>6951.9803</v>
+        <v>22091.5048378891</v>
       </c>
       <c r="G4" t="n">
-        <v>7422.600442</v>
+        <v>7894.76466751822</v>
       </c>
       <c r="H4" t="n">
-        <v>864.8045100000001</v>
+        <v>1070.1426335473</v>
       </c>
       <c r="I4" t="n">
-        <v>157.3698</v>
+        <v>544.091547572247</v>
       </c>
       <c r="J4" t="n">
-        <v>4.3547</v>
+        <v>12.8844335183486</v>
       </c>
       <c r="K4" t="n">
-        <v>54.6124</v>
+        <v>123.911680346964</v>
       </c>
       <c r="L4" t="n">
-        <v>1924.0985</v>
+        <v>3581.3620871696</v>
       </c>
       <c r="M4" t="n">
-        <v>74.53740000000001</v>
+        <v>176.146145778</v>
       </c>
       <c r="N4" t="n">
-        <v>139.43841</v>
+        <v>222.128931919559</v>
       </c>
       <c r="O4" t="n">
-        <v>82.73065</v>
+        <v>119.161101958223</v>
       </c>
       <c r="P4" t="n">
-        <v>447.9453</v>
+        <v>1000.5855886749</v>
       </c>
       <c r="Q4" t="n">
-        <v>6256.311524</v>
+        <v>6302.20446139399</v>
       </c>
       <c r="R4" t="n">
-        <v>555.7297</v>
+        <v>1035.9833723214</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7551.5217</v>
+        <v>14675.1714124278</v>
       </c>
       <c r="C5" t="n">
-        <v>1345.3709</v>
+        <v>3196.3925814003</v>
       </c>
       <c r="D5" t="n">
-        <v>179.511</v>
+        <v>287.867095317817</v>
       </c>
       <c r="E5" t="n">
-        <v>979.8424</v>
+        <v>1544.4072096835</v>
       </c>
       <c r="F5" t="n">
-        <v>14517.4116</v>
+        <v>22748.1032069745</v>
       </c>
       <c r="G5" t="n">
-        <v>6965.8899</v>
+        <v>8072.93179454665</v>
       </c>
       <c r="H5" t="n">
-        <v>824.2342</v>
+        <v>1122.36488915657</v>
       </c>
       <c r="I5" t="n">
-        <v>171.8689</v>
+        <v>581.5161131513941</v>
       </c>
       <c r="J5" t="n">
-        <v>3.9948</v>
+        <v>15.4755710306342</v>
       </c>
       <c r="K5" t="n">
-        <v>56.9907</v>
+        <v>130.321696647716</v>
       </c>
       <c r="L5" t="n">
-        <v>2110.1776</v>
+        <v>3629.8125430547</v>
       </c>
       <c r="M5" t="n">
-        <v>76.81399999999999</v>
+        <v>188.7204762776</v>
       </c>
       <c r="N5" t="n">
-        <v>169.791</v>
+        <v>241.638088525298</v>
       </c>
       <c r="O5" t="n">
-        <v>82.18680000000001</v>
+        <v>127.169532383146</v>
       </c>
       <c r="P5" t="n">
-        <v>517.5939</v>
+        <v>1088.4610805204</v>
       </c>
       <c r="Q5" t="n">
-        <v>5800.236</v>
+        <v>6400.99705267769</v>
       </c>
       <c r="R5" t="n">
-        <v>590.3279</v>
+        <v>1103.0031822869</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8394.133400000001</v>
+        <v>15171.3613953982</v>
       </c>
       <c r="C6" t="n">
-        <v>1495.8302</v>
+        <v>3362.1806560132</v>
       </c>
       <c r="D6" t="n">
-        <v>199.8214</v>
+        <v>295.561981187491</v>
       </c>
       <c r="E6" t="n">
-        <v>1064.2287</v>
+        <v>1581.9081307815</v>
       </c>
       <c r="F6" t="n">
-        <v>15340.882</v>
+        <v>23302.6324487464</v>
       </c>
       <c r="G6" t="n">
-        <v>6946.7486</v>
+        <v>8131.27105334824</v>
       </c>
       <c r="H6" t="n">
-        <v>806.4228000000001</v>
+        <v>1105.85657488697</v>
       </c>
       <c r="I6" t="n">
-        <v>201.1217</v>
+        <v>643.692547999014</v>
       </c>
       <c r="J6" t="n">
-        <v>4.3689</v>
+        <v>17.2911302001563</v>
       </c>
       <c r="K6" t="n">
-        <v>61.3709</v>
+        <v>140.358090163051</v>
       </c>
       <c r="L6" t="n">
-        <v>2367.5473</v>
+        <v>3735.3857481943</v>
       </c>
       <c r="M6" t="n">
-        <v>83.5231</v>
+        <v>204.9346462671</v>
       </c>
       <c r="N6" t="n">
-        <v>185.8505</v>
+        <v>248.648862245444</v>
       </c>
       <c r="O6" t="n">
-        <v>80.8254</v>
+        <v>129.73548657431</v>
       </c>
       <c r="P6" t="n">
-        <v>567.5318</v>
+        <v>1173.100779846</v>
       </c>
       <c r="Q6" t="n">
-        <v>5751.5429</v>
+        <v>6473.04228963428</v>
       </c>
       <c r="R6" t="n">
-        <v>605.6147999999999</v>
+        <v>1062.1526322233</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8835.5015</v>
+        <v>16200.911396017</v>
       </c>
       <c r="C7" t="n">
-        <v>1591.914881</v>
+        <v>3617.5343394566</v>
       </c>
       <c r="D7" t="n">
-        <v>218.5041</v>
+        <v>294.960467571078</v>
       </c>
       <c r="E7" t="n">
-        <v>1132.351434</v>
+        <v>1652.740412179</v>
       </c>
       <c r="F7" t="n">
-        <v>16120.094855</v>
+        <v>24524.6193130124</v>
       </c>
       <c r="G7" t="n">
-        <v>7284.593355</v>
+        <v>8323.7079169954</v>
       </c>
       <c r="H7" t="n">
-        <v>882.57312</v>
+        <v>1117.96464367866</v>
       </c>
       <c r="I7" t="n">
-        <v>248.8506</v>
+        <v>713.4520674362921</v>
       </c>
       <c r="J7" t="n">
-        <v>4.7941</v>
+        <v>19.5518559531541</v>
       </c>
       <c r="K7" t="n">
-        <v>69.102</v>
+        <v>156.126369418973</v>
       </c>
       <c r="L7" t="n">
-        <v>2401.1081</v>
+        <v>3889.8969654964</v>
       </c>
       <c r="M7" t="n">
-        <v>93.48572900000001</v>
+        <v>227.6635863045</v>
       </c>
       <c r="N7" t="n">
-        <v>195.707505</v>
+        <v>280.351685680675</v>
       </c>
       <c r="O7" t="n">
-        <v>84.89019999999999</v>
+        <v>133.851373886618</v>
       </c>
       <c r="P7" t="n">
-        <v>579.441108</v>
+        <v>1316.4142333642</v>
       </c>
       <c r="Q7" t="n">
-        <v>5989.34315</v>
+        <v>6599.41941928214</v>
       </c>
       <c r="R7" t="n">
-        <v>651.8128</v>
+        <v>1062.6995049117</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9599.224702</v>
+        <v>16202.9100084335</v>
       </c>
       <c r="C8" t="n">
-        <v>1789.832851</v>
+        <v>3591.5239125693</v>
       </c>
       <c r="D8" t="n">
-        <v>232.0346</v>
+        <v>296.727375138861</v>
       </c>
       <c r="E8" t="n">
-        <v>1198.608274</v>
+        <v>1596.3038148556</v>
       </c>
       <c r="F8" t="n">
-        <v>17101.967422</v>
+        <v>24405.2413287719</v>
       </c>
       <c r="G8" t="n">
-        <v>7502.74272</v>
+        <v>8202.33132033839</v>
       </c>
       <c r="H8" t="n">
-        <v>950.577513</v>
+        <v>1187.64284583755</v>
       </c>
       <c r="I8" t="n">
-        <v>305.286</v>
+        <v>685.075527159783</v>
       </c>
       <c r="J8" t="n">
-        <v>4.834</v>
+        <v>20.6505275893825</v>
       </c>
       <c r="K8" t="n">
-        <v>76.385594</v>
+        <v>155.249881217938</v>
       </c>
       <c r="L8" t="n">
-        <v>2605.929804</v>
+        <v>4039.3254548508</v>
       </c>
       <c r="M8" t="n">
-        <v>102.806395</v>
+        <v>231.3273751361</v>
       </c>
       <c r="N8" t="n">
-        <v>187.422982</v>
+        <v>268.01945828457</v>
       </c>
       <c r="O8" t="n">
-        <v>89.070088</v>
+        <v>139.948763152057</v>
       </c>
       <c r="P8" t="n">
-        <v>627.075639</v>
+        <v>1262.9358977989</v>
       </c>
       <c r="Q8" t="n">
-        <v>6184.516405</v>
+        <v>6220.64585334814</v>
       </c>
       <c r="R8" t="n">
-        <v>690.124892</v>
+        <v>1094.0255075905</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10374.4192534641</v>
+        <v>16949.362181017</v>
       </c>
       <c r="C9" t="n">
-        <v>2036.4</v>
+        <v>3816.7784054275</v>
       </c>
       <c r="D9" t="n">
-        <v>247.873427094031</v>
+        <v>302.900449756491</v>
       </c>
       <c r="E9" t="n">
-        <v>1258.8077040901</v>
+        <v>1640.9704024826</v>
       </c>
       <c r="F9" t="n">
-        <v>17659.3585209431</v>
+        <v>25241.8960306157</v>
       </c>
       <c r="G9" t="n">
-        <v>7284.93926747895</v>
+        <v>8292.53384959872</v>
       </c>
       <c r="H9" t="n">
-        <v>979.224874268165</v>
+        <v>1232.64990261086</v>
       </c>
       <c r="I9" t="n">
-        <v>291.196622835405</v>
+        <v>721.256902871839</v>
       </c>
       <c r="J9" t="n">
-        <v>5.26469894616039</v>
+        <v>22.5500712783734</v>
       </c>
       <c r="K9" t="n">
-        <v>83.6667577821524</v>
+        <v>163.815531946266</v>
       </c>
       <c r="L9" t="n">
-        <v>2734.7244402239</v>
+        <v>4139.0038068508</v>
       </c>
       <c r="M9" t="n">
-        <v>117.0472318595</v>
+        <v>246.0408702202</v>
       </c>
       <c r="N9" t="n">
-        <v>179.599972241268</v>
+        <v>285.11314297981</v>
       </c>
       <c r="O9" t="n">
-        <v>89.1701790963678</v>
+        <v>149.479492624737</v>
       </c>
       <c r="P9" t="n">
-        <v>670.8860259867</v>
+        <v>1308.2859824057</v>
       </c>
       <c r="Q9" t="n">
-        <v>5908.27264810652</v>
+        <v>6314.71889408979</v>
       </c>
       <c r="R9" t="n">
-        <v>763.9515995523</v>
+        <v>1116.9813144411</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10898.8533930569</v>
+        <v>17565.2730598954</v>
       </c>
       <c r="C10" t="n">
-        <v>2296.9553415361</v>
+        <v>4138.1436909091</v>
       </c>
       <c r="D10" t="n">
-        <v>254.849564680602</v>
+        <v>314.263728846784</v>
       </c>
       <c r="E10" t="n">
-        <v>1296.4052756208</v>
+        <v>1607.797546</v>
       </c>
       <c r="F10" t="n">
-        <v>18279.096839324</v>
+        <v>25688.3541524462</v>
       </c>
       <c r="G10" t="n">
-        <v>7380.24344626713</v>
+        <v>8123.08109255081</v>
       </c>
       <c r="H10" t="n">
-        <v>1063.45422304482</v>
+        <v>1315.92988506142</v>
       </c>
       <c r="I10" t="n">
-        <v>352.188068318999</v>
+        <v>735.756484952593</v>
       </c>
       <c r="J10" t="n">
-        <v>6.62600662528704</v>
+        <v>23.3307213443634</v>
       </c>
       <c r="K10" t="n">
-        <v>87.9356067308494</v>
+        <v>173.455762903533</v>
       </c>
       <c r="L10" t="n">
-        <v>2899.4643545489</v>
+        <v>3923.3402912</v>
       </c>
       <c r="M10" t="n">
-        <v>125.4831315828</v>
+        <v>261.039306</v>
       </c>
       <c r="N10" t="n">
-        <v>185.623062698358</v>
+        <v>306.03238035285</v>
       </c>
       <c r="O10" t="n">
-        <v>90.71883217757831</v>
+        <v>162.501028</v>
       </c>
       <c r="P10" t="n">
-        <v>698.2403621693001</v>
+        <v>1366.6770823908</v>
       </c>
       <c r="Q10" t="n">
-        <v>5901.83472016239</v>
+        <v>6153.68506090557</v>
       </c>
       <c r="R10" t="n">
-        <v>748.4285806668</v>
+        <v>1122.167661</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>11614.0938276536</v>
+        <v>19037.7</v>
       </c>
       <c r="C11" t="n">
-        <v>2471.7320951075</v>
+        <v>4584.537527</v>
       </c>
       <c r="D11" t="n">
-        <v>260.325212042082</v>
+        <v>329.4</v>
       </c>
       <c r="E11" t="n">
-        <v>1343.5596184553</v>
+        <v>1731.3532942915</v>
       </c>
       <c r="F11" t="n">
-        <v>19093.7093102245</v>
+        <v>27400.8379067502</v>
       </c>
       <c r="G11" t="n">
-        <v>7479.61548257082</v>
+        <v>8363.1</v>
       </c>
       <c r="H11" t="n">
-        <v>1074.91669955523</v>
+        <v>1355.7</v>
       </c>
       <c r="I11" t="n">
-        <v>405.004011035373</v>
+        <v>746.4</v>
       </c>
       <c r="J11" t="n">
-        <v>6.73071366113998</v>
+        <v>25.8307</v>
       </c>
       <c r="K11" t="n">
-        <v>95.248661803131</v>
+        <v>184.9861</v>
       </c>
       <c r="L11" t="n">
-        <v>3047.490928032</v>
+        <v>4242.5436101877</v>
       </c>
       <c r="M11" t="n">
-        <v>135.0605846363</v>
-      </c>
-      <c r="N11" t="n">
-        <v>180.802852322084</v>
-      </c>
+        <v>277.720432301</v>
+      </c>
+      <c r="N11" t="inlineStr"/>
       <c r="O11" t="n">
-        <v>99.9420823962384</v>
+        <v>173.3</v>
       </c>
       <c r="P11" t="n">
-        <v>764.8778014246</v>
+        <v>1419.543518</v>
       </c>
       <c r="Q11" t="n">
-        <v>5977.80321676993</v>
+        <v>6324.1</v>
       </c>
       <c r="R11" t="n">
-        <v>829.6459037226</v>
+        <v>1165.565488</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>12285.1507641292</v>
-      </c>
+          <t>2020年</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
-        <v>2581.7404381457</v>
-      </c>
-      <c r="D12" t="n">
-        <v>258.908359648273</v>
-      </c>
+        <v>5121.871817</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
-        <v>1409.4778413336</v>
+        <v>1781.5318458</v>
       </c>
       <c r="F12" t="n">
-        <v>20095.3692329354</v>
-      </c>
-      <c r="G12" t="n">
-        <v>7810.21846880618</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1086.01153960812</v>
-      </c>
-      <c r="I12" t="n">
-        <v>422.487101401491</v>
-      </c>
-      <c r="J12" t="n">
-        <v>6.65688195371117</v>
-      </c>
-      <c r="K12" t="n">
-        <v>104.710662151783</v>
-      </c>
+        <v>28692.35608862</v>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>3164.9067540262</v>
+        <v>4406.61334582</v>
       </c>
       <c r="M12" t="n">
-        <v>146.249107923</v>
-      </c>
-      <c r="N12" t="n">
-        <v>179.400006021521</v>
-      </c>
-      <c r="O12" t="n">
-        <v>101.840960665384</v>
-      </c>
+        <v>293.1835789</v>
+      </c>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
       <c r="P12" t="n">
-        <v>813.530852545</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>6266.05788654312</v>
-      </c>
+        <v>1431.4128211</v>
+      </c>
+      <c r="Q12" t="inlineStr"/>
       <c r="R12" t="n">
-        <v>884.1025016205</v>
+        <v>1151.329927</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>13201.8403048976</v>
-      </c>
+          <t>2021年</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>2864.1222041631</v>
-      </c>
-      <c r="D13" t="n">
-        <v>276.862154099002</v>
-      </c>
+        <v>5595.606763</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="n">
-        <v>1448.5619989576</v>
+        <v>1887.589157</v>
       </c>
       <c r="F13" t="n">
-        <v>21018.6085908276</v>
-      </c>
-      <c r="G13" t="n">
-        <v>7816.76828593006</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1088.97940666362</v>
-      </c>
-      <c r="I13" t="n">
-        <v>505.412664591695</v>
-      </c>
-      <c r="J13" t="n">
-        <v>11.1002143488913</v>
-      </c>
-      <c r="K13" t="n">
-        <v>113.971077149584</v>
-      </c>
+        <v>29970.199396</v>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>3367.2791447586</v>
+        <v>4597.337575</v>
       </c>
       <c r="M13" t="n">
-        <v>160.7551321814</v>
-      </c>
-      <c r="N13" t="n">
-        <v>200.855483433417</v>
-      </c>
-      <c r="O13" t="n">
-        <v>111.286246231278</v>
-      </c>
+        <v>316.396116</v>
+      </c>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
       <c r="P13" t="n">
-        <v>857.6924211677</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>6241.79161004267</v>
-      </c>
+        <v>1499.796461</v>
+      </c>
+      <c r="Q13" t="inlineStr"/>
       <c r="R13" t="n">
-        <v>946.0748870189</v>
+        <v>1172.415119</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>14196.7401703709</v>
-      </c>
+          <t>2022年</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="n">
-        <v>3089.427628459</v>
-      </c>
-      <c r="D14" t="n">
-        <v>291.00453769898</v>
-      </c>
+        <v>6003.894983</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="n">
-        <v>1550.4430139861</v>
+        <v>1926.532784</v>
       </c>
       <c r="F14" t="n">
-        <v>22091.5048378891</v>
-      </c>
-      <c r="G14" t="n">
-        <v>7894.76466751822</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1070.1426335473</v>
-      </c>
-      <c r="I14" t="n">
-        <v>544.091547572247</v>
-      </c>
-      <c r="J14" t="n">
-        <v>12.8844335183486</v>
-      </c>
-      <c r="K14" t="n">
-        <v>123.911680346964</v>
-      </c>
+        <v>31296.240816</v>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>3581.3620871696</v>
+        <v>4757.182218</v>
       </c>
       <c r="M14" t="n">
-        <v>176.146145778</v>
-      </c>
-      <c r="N14" t="n">
-        <v>222.128931919559</v>
-      </c>
-      <c r="O14" t="n">
-        <v>119.161101958223</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1000.5855886749</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>6302.20446139399</v>
-      </c>
+        <v>334.205298</v>
+      </c>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
       <c r="R14" t="n">
-        <v>1035.9833723214</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>14675.1714124278</v>
-      </c>
-      <c r="C15" t="n">
-        <v>3196.3925814003</v>
-      </c>
-      <c r="D15" t="n">
-        <v>287.867095317817</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1544.4072096835</v>
-      </c>
-      <c r="F15" t="n">
-        <v>22748.1032069745</v>
-      </c>
-      <c r="G15" t="n">
-        <v>8072.93179454665</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1122.36488915657</v>
-      </c>
-      <c r="I15" t="n">
-        <v>581.5161131513941</v>
-      </c>
-      <c r="J15" t="n">
-        <v>15.4755710306342</v>
-      </c>
-      <c r="K15" t="n">
-        <v>130.321696647716</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3629.8125430547</v>
-      </c>
-      <c r="M15" t="n">
-        <v>188.7204762776</v>
-      </c>
-      <c r="N15" t="n">
-        <v>241.638088525298</v>
-      </c>
-      <c r="O15" t="n">
-        <v>127.169532383146</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1088.4610805204</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>6400.99705267769</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1103.0031822869</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>15171.3613953982</v>
-      </c>
-      <c r="C16" t="n">
-        <v>3362.1806560132</v>
-      </c>
-      <c r="D16" t="n">
-        <v>295.561981187491</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1581.9081307815</v>
-      </c>
-      <c r="F16" t="n">
-        <v>23302.6324487464</v>
-      </c>
-      <c r="G16" t="n">
-        <v>8131.27105334824</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1105.85657488697</v>
-      </c>
-      <c r="I16" t="n">
-        <v>643.692547999014</v>
-      </c>
-      <c r="J16" t="n">
-        <v>17.2911302001563</v>
-      </c>
-      <c r="K16" t="n">
-        <v>140.358090163051</v>
-      </c>
-      <c r="L16" t="n">
-        <v>3735.3857481943</v>
-      </c>
-      <c r="M16" t="n">
-        <v>204.9346462671</v>
-      </c>
-      <c r="N16" t="n">
-        <v>248.648862245444</v>
-      </c>
-      <c r="O16" t="n">
-        <v>129.73548657431</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1173.100779846</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>6473.04228963428</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1062.1526322233</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>16200.911396017</v>
-      </c>
-      <c r="C17" t="n">
-        <v>3617.5343394566</v>
-      </c>
-      <c r="D17" t="n">
-        <v>294.960467571078</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1652.740412179</v>
-      </c>
-      <c r="F17" t="n">
-        <v>24524.6193130124</v>
-      </c>
-      <c r="G17" t="n">
-        <v>8323.7079169954</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1117.96464367866</v>
-      </c>
-      <c r="I17" t="n">
-        <v>713.4520674362921</v>
-      </c>
-      <c r="J17" t="n">
-        <v>19.5518559531541</v>
-      </c>
-      <c r="K17" t="n">
-        <v>156.126369418973</v>
-      </c>
-      <c r="L17" t="n">
-        <v>3889.8969654964</v>
-      </c>
-      <c r="M17" t="n">
-        <v>227.6635863045</v>
-      </c>
-      <c r="N17" t="n">
-        <v>280.351685680675</v>
-      </c>
-      <c r="O17" t="n">
-        <v>133.851373886618</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1316.4142333642</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>6599.41941928214</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1062.6995049117</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>16202.9100084335</v>
-      </c>
-      <c r="C18" t="n">
-        <v>3591.5239125693</v>
-      </c>
-      <c r="D18" t="n">
-        <v>296.727375138861</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1596.3038148556</v>
-      </c>
-      <c r="F18" t="n">
-        <v>24405.2413287719</v>
-      </c>
-      <c r="G18" t="n">
-        <v>8202.33132033839</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1187.64284583755</v>
-      </c>
-      <c r="I18" t="n">
-        <v>685.075527159783</v>
-      </c>
-      <c r="J18" t="n">
-        <v>20.6505275893825</v>
-      </c>
-      <c r="K18" t="n">
-        <v>155.249881217938</v>
-      </c>
-      <c r="L18" t="n">
-        <v>4039.3254548508</v>
-      </c>
-      <c r="M18" t="n">
-        <v>231.3273751361</v>
-      </c>
-      <c r="N18" t="n">
-        <v>268.01945828457</v>
-      </c>
-      <c r="O18" t="n">
-        <v>139.948763152057</v>
-      </c>
-      <c r="P18" t="n">
-        <v>1262.9358977989</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>6220.64585334814</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1094.0255075905</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>16949.362181017</v>
-      </c>
-      <c r="C19" t="n">
-        <v>3816.7784054275</v>
-      </c>
-      <c r="D19" t="n">
-        <v>302.900449756491</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1640.9704024826</v>
-      </c>
-      <c r="F19" t="n">
-        <v>25241.8960306157</v>
-      </c>
-      <c r="G19" t="n">
-        <v>8292.53384959872</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1232.64990261086</v>
-      </c>
-      <c r="I19" t="n">
-        <v>721.256902871839</v>
-      </c>
-      <c r="J19" t="n">
-        <v>22.5500712783734</v>
-      </c>
-      <c r="K19" t="n">
-        <v>163.815531946266</v>
-      </c>
-      <c r="L19" t="n">
-        <v>4139.0038068508</v>
-      </c>
-      <c r="M19" t="n">
-        <v>246.0408702202</v>
-      </c>
-      <c r="N19" t="n">
-        <v>285.11314297981</v>
-      </c>
-      <c r="O19" t="n">
-        <v>149.479492624737</v>
-      </c>
-      <c r="P19" t="n">
-        <v>1308.2859824057</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>6314.71889408979</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1116.9813144411</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>17565.2730598954</v>
-      </c>
-      <c r="C20" t="n">
-        <v>4138.1436909091</v>
-      </c>
-      <c r="D20" t="n">
-        <v>314.263728846784</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1607.797546</v>
-      </c>
-      <c r="F20" t="n">
-        <v>25688.3541524462</v>
-      </c>
-      <c r="G20" t="n">
-        <v>8123.08109255081</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1315.92988506142</v>
-      </c>
-      <c r="I20" t="n">
-        <v>735.756484952593</v>
-      </c>
-      <c r="J20" t="n">
-        <v>23.3307213443634</v>
-      </c>
-      <c r="K20" t="n">
-        <v>173.455762903533</v>
-      </c>
-      <c r="L20" t="n">
-        <v>3923.3402912</v>
-      </c>
-      <c r="M20" t="n">
-        <v>261.039306</v>
-      </c>
-      <c r="N20" t="n">
-        <v>306.03238035285</v>
-      </c>
-      <c r="O20" t="n">
-        <v>162.501028</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1366.6770823908</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>6153.68506090557</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1122.167661</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>19037.7</v>
-      </c>
-      <c r="C21" t="n">
-        <v>4584.537527</v>
-      </c>
-      <c r="D21" t="n">
-        <v>329.4</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1731.3532942915</v>
-      </c>
-      <c r="F21" t="n">
-        <v>27400.8379067502</v>
-      </c>
-      <c r="G21" t="n">
-        <v>8363.1</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1355.7</v>
-      </c>
-      <c r="I21" t="n">
-        <v>746.4</v>
-      </c>
-      <c r="J21" t="n">
-        <v>25.8307</v>
-      </c>
-      <c r="K21" t="n">
-        <v>184.9861</v>
-      </c>
-      <c r="L21" t="n">
-        <v>4242.5436101877</v>
-      </c>
-      <c r="M21" t="n">
-        <v>277.720432301</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="n">
-        <v>173.3</v>
-      </c>
-      <c r="P21" t="n">
-        <v>1419.543518</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>6324.1</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1165.565488</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="n">
-        <v>5121.871817</v>
-      </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="n">
-        <v>1781.5318458</v>
-      </c>
-      <c r="F22" t="n">
-        <v>28692.35608862</v>
-      </c>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>4406.61334582</v>
-      </c>
-      <c r="M22" t="n">
-        <v>293.1835789</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="n">
-        <v>1431.4128211</v>
-      </c>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="n">
-        <v>1151.329927</v>
+        <v>1177.677353</v>
       </c>
     </row>
   </sheetData>
